--- a/очень нада.xlsx
+++ b/очень нада.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>1. Что называется выборкой?</t>
   </si>
@@ -89,7 +89,19 @@
     <t>[52,05;52,28)</t>
   </si>
   <si>
-    <t>интервальный ряд</t>
+    <t>дискретный вариационный ряд</t>
+  </si>
+  <si>
+    <t>империческая функция</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F*(x)=</t>
+  </si>
+  <si>
+    <t>1)0, x&lt;50,9</t>
+  </si>
+  <si>
+    <t>2)50,9&lt;=x&lt;51,13</t>
   </si>
 </sst>
 </file>
@@ -140,12 +152,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="13" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -179,6 +194,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Полигон</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -525,7 +565,446 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Гистограмма</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.3357212701353504E-2"/>
+          <c:y val="0.16539582173151865"/>
+          <c:w val="0.92049899644897326"/>
+          <c:h val="0.62914865093571781"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист2!$E$32:$Q$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>50.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>51.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>51.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>51.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>51.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>51.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>51.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>51.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>52.2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>52.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист2!$E$33:$Q$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0882-4C67-82D7-96507A92B43D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1616078976"/>
+        <c:axId val="1616066496"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1616078976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1616066496"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1616066496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1616078976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1068,20 +1547,523 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>800099</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1095,6 +2077,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>809623</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Диаграмма 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1369,7 +2381,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1425,10 +2437,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M44"/>
+  <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="I44" sqref="I44"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1436,7 +2448,8 @@
     <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="6" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.28515625" customWidth="1"/>
-    <col min="8" max="12" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -1466,7 +2479,7 @@
         <v>51.1</v>
       </c>
       <c r="F2">
-        <f>COUNTIF(C1:C32,51.1)</f>
+        <f>COUNTIF(C1:C31,51.1)</f>
         <v>2</v>
       </c>
     </row>
@@ -1478,7 +2491,7 @@
         <v>51.1</v>
       </c>
       <c r="F3">
-        <f>COUNTIF(C1:C33,51.2)</f>
+        <f>COUNTIF(C1:C31,51.2)</f>
         <v>3</v>
       </c>
     </row>
@@ -1490,7 +2503,7 @@
         <v>51.2</v>
       </c>
       <c r="F4">
-        <f>COUNTIF(C1:C34,51.3)</f>
+        <f>COUNTIF(C1:C31,51.3)</f>
         <v>3</v>
       </c>
     </row>
@@ -1502,7 +2515,7 @@
         <v>51.2</v>
       </c>
       <c r="F5">
-        <f>COUNTIF(C1:C35,51.4)</f>
+        <f>COUNTIF(C1:C31,51.4)</f>
         <v>3</v>
       </c>
     </row>
@@ -1642,7 +2655,7 @@
         <v>51.5</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>51.5</v>
       </c>
@@ -1650,7 +2663,7 @@
         <v>51.6</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>52</v>
       </c>
@@ -1658,7 +2671,7 @@
         <v>51.6</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>52.3</v>
       </c>
@@ -1666,7 +2679,7 @@
         <v>51.6</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>51.6</v>
       </c>
@@ -1674,7 +2687,7 @@
         <v>51.6</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>51.5</v>
       </c>
@@ -1682,7 +2695,7 @@
         <v>51.6</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>51.3</v>
       </c>
@@ -1690,7 +2703,7 @@
         <v>51.7</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>51.4</v>
       </c>
@@ -1698,7 +2711,7 @@
         <v>51.7</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>51.3</v>
       </c>
@@ -1706,39 +2719,96 @@
         <v>51.7</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>51.2</v>
       </c>
       <c r="C25">
         <v>51.8</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>51.1</v>
       </c>
       <c r="C26">
         <v>51.8</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>51.6</v>
       </c>
       <c r="C27">
         <v>51.9</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E27" s="1">
+        <v>3</v>
+      </c>
+      <c r="F27" s="1">
+        <v>8</v>
+      </c>
+      <c r="G27" s="1">
+        <v>9</v>
+      </c>
+      <c r="H27" s="1">
+        <v>14</v>
+      </c>
+      <c r="I27" s="1">
+        <v>3</v>
+      </c>
+      <c r="J27" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>51.6</v>
       </c>
       <c r="C28">
         <v>52</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E28" s="2">
+        <v>9.6774193548387094E-2</v>
+      </c>
+      <c r="F28" s="2">
+        <v>0.25806451612903225</v>
+      </c>
+      <c r="G28" s="2">
+        <v>0.29032258064516131</v>
+      </c>
+      <c r="H28" s="2">
+        <v>0.45161290322580644</v>
+      </c>
+      <c r="I28" s="2">
+        <v>9.6774193548387094E-2</v>
+      </c>
+      <c r="J28" s="2">
+        <v>0.12903225806451613</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>51.9</v>
       </c>
@@ -1746,7 +2816,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>51.2</v>
       </c>
@@ -1754,205 +2824,154 @@
         <v>52.2</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>52</v>
       </c>
       <c r="C31">
         <v>52.3</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="E31" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E32" s="1">
         <v>50.9</v>
       </c>
-      <c r="B36" s="1">
+      <c r="F32" s="1">
         <v>51.1</v>
       </c>
-      <c r="C36" s="1">
+      <c r="G32" s="1">
         <v>51.2</v>
       </c>
-      <c r="D36" s="1">
+      <c r="H32" s="1">
         <v>51.3</v>
       </c>
-      <c r="E36" s="1">
+      <c r="I32" s="1">
         <v>51.4</v>
       </c>
-      <c r="F36" s="1">
+      <c r="J32" s="1">
         <v>51.5</v>
       </c>
-      <c r="G36" s="1">
+      <c r="K32" s="1">
         <v>51.6</v>
       </c>
-      <c r="H36" s="1">
+      <c r="L32" s="1">
         <v>51.7</v>
       </c>
-      <c r="I36" s="1">
+      <c r="M32" s="1">
         <v>51.8</v>
       </c>
-      <c r="J36" s="1">
+      <c r="N32" s="1">
         <v>51.9</v>
       </c>
-      <c r="K36" s="1">
+      <c r="O32" s="1">
         <v>52</v>
       </c>
-      <c r="L36" s="1">
+      <c r="P32" s="1">
         <v>52.2</v>
       </c>
-      <c r="M36" s="1">
+      <c r="Q32" s="1">
         <v>52.3</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
+    <row r="33" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E33" s="1">
         <v>1</v>
       </c>
-      <c r="B37" s="1">
+      <c r="F33" s="1">
         <v>2</v>
       </c>
-      <c r="C37" s="1">
+      <c r="G33" s="1">
         <v>3</v>
       </c>
-      <c r="D37" s="1">
+      <c r="H33" s="1">
         <v>3</v>
       </c>
-      <c r="E37" s="1">
+      <c r="I33" s="1">
         <v>3</v>
       </c>
-      <c r="F37" s="1">
+      <c r="J33" s="1">
         <v>4</v>
       </c>
-      <c r="G37" s="1">
+      <c r="K33" s="1">
         <v>5</v>
       </c>
-      <c r="H37" s="1">
+      <c r="L33" s="1">
         <v>3</v>
       </c>
-      <c r="I37" s="1">
+      <c r="M33" s="1">
         <v>2</v>
       </c>
-      <c r="J37" s="1">
+      <c r="N33" s="1">
         <v>1</v>
       </c>
-      <c r="K37" s="1">
+      <c r="O33" s="1">
         <v>2</v>
       </c>
-      <c r="L37" s="1">
+      <c r="P33" s="1">
         <v>1</v>
       </c>
-      <c r="M37" s="1">
+      <c r="Q33" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
+    <row r="34" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E34" s="2">
         <v>3.2258064516129031E-2</v>
       </c>
-      <c r="B38" s="2">
+      <c r="F34" s="2">
         <v>6.4516129032258063E-2</v>
       </c>
-      <c r="C38" s="2">
+      <c r="G34" s="2">
         <v>9.6774193548387094E-2</v>
       </c>
-      <c r="D38" s="2">
+      <c r="H34" s="2">
         <v>9.6774193548387094E-2</v>
       </c>
-      <c r="E38" s="2">
+      <c r="I34" s="2">
         <v>9.6774193548387094E-2</v>
       </c>
-      <c r="F38" s="2">
+      <c r="J34" s="2">
         <v>0.12903225806451613</v>
       </c>
-      <c r="G38" s="2">
+      <c r="K34" s="2">
         <v>0.16129032258064516</v>
       </c>
-      <c r="H38" s="2">
+      <c r="L34" s="2">
         <v>9.6774193548387094E-2</v>
       </c>
-      <c r="I38" s="2">
+      <c r="M34" s="2">
         <v>6.4516129032258063E-2</v>
       </c>
-      <c r="J38" s="2">
+      <c r="N34" s="2">
         <v>3.2258064516129031E-2</v>
       </c>
-      <c r="K38" s="2">
+      <c r="O34" s="2">
         <v>6.4516129032258063E-2</v>
       </c>
-      <c r="L38" s="2">
+      <c r="P34" s="2">
         <v>3.2258064516129031E-2</v>
       </c>
-      <c r="M38" s="2">
+      <c r="Q34" s="2">
         <v>3.2258064516129031E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
-        <v>3</v>
-      </c>
-      <c r="B43" s="1">
-        <v>8</v>
-      </c>
-      <c r="C43" s="1">
-        <v>9</v>
-      </c>
-      <c r="D43" s="1">
-        <v>14</v>
-      </c>
-      <c r="E43" s="1">
-        <v>3</v>
-      </c>
-      <c r="F43" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="2">
-        <v>9.6774193548387094E-2</v>
-      </c>
-      <c r="B44" s="2">
-        <v>0.25806451612903225</v>
-      </c>
-      <c r="C44" s="2">
-        <v>0.29032258064516131</v>
-      </c>
-      <c r="D44" s="2">
-        <v>0.45161290322580644</v>
-      </c>
-      <c r="E44" s="2">
-        <v>9.6774193548387094E-2</v>
-      </c>
-      <c r="F44" s="2">
-        <v>0.12903225806451613</v>
+    <row r="38" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E38" t="s">
+        <v>21</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H38" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="H39" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
